--- a/Bases/3.6.xlsx
+++ b/Bases/3.6.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26306"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,21 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -27,50 +38,50 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
+    <t>Actividad económica</t>
+  </si>
+  <si>
+    <t>Industrias</t>
+  </si>
+  <si>
+    <t>Profesionales</t>
+  </si>
+  <si>
+    <t>Otras de servicios</t>
+  </si>
+  <si>
+    <t>Admin. pública</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Agricultura</t>
+  </si>
+  <si>
+    <t>Inmobiliarias</t>
+  </si>
+  <si>
+    <t>Financieras</t>
+  </si>
+  <si>
+    <t>Comunicaciones</t>
+  </si>
+  <si>
+    <t>NS/NR</t>
+  </si>
+  <si>
     <t>Tasa</t>
-  </si>
-  <si>
-    <t>Industrias</t>
-  </si>
-  <si>
-    <t>Profesionales</t>
-  </si>
-  <si>
-    <t>Comercio</t>
-  </si>
-  <si>
-    <t>Construcción</t>
-  </si>
-  <si>
-    <t>Agricultura</t>
-  </si>
-  <si>
-    <t>Inmobiliarias</t>
-  </si>
-  <si>
-    <t>Financieras</t>
-  </si>
-  <si>
-    <t>Comunicaciones</t>
-  </si>
-  <si>
-    <t>NS/NR</t>
-  </si>
-  <si>
-    <t>Actividad económica</t>
-  </si>
-  <si>
-    <t>Otras de servicios</t>
-  </si>
-  <si>
-    <t>Admin. pública</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,10 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +405,10 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -417,9 +424,9 @@
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -428,36 +435,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>6.6745996392333797</v>
@@ -493,7 +500,7 @@
         <v>0.12950891754622901</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="J6" s="2"/>
     </row>
   </sheetData>
